--- a/实战资料/211018前端实战座位表.xlsx
+++ b/实战资料/211018前端实战座位表.xlsx
@@ -103,46 +103,46 @@
     <t>王涛</t>
   </si>
   <si>
+    <t>萧嘉财</t>
+  </si>
+  <si>
+    <t>陈子彬</t>
+  </si>
+  <si>
+    <t>殷馨</t>
+  </si>
+  <si>
+    <t>潘美伊</t>
+  </si>
+  <si>
+    <t>四组</t>
+  </si>
+  <si>
+    <t>徐浩然</t>
+  </si>
+  <si>
+    <t>刘双</t>
+  </si>
+  <si>
+    <t>曾庆</t>
+  </si>
+  <si>
+    <t>伍刘全</t>
+  </si>
+  <si>
+    <t>苏先勇</t>
+  </si>
+  <si>
+    <t>五组</t>
+  </si>
+  <si>
+    <t>刘展锋</t>
+  </si>
+  <si>
+    <t>刘芳茂</t>
+  </si>
+  <si>
     <t>徐林彬</t>
-  </si>
-  <si>
-    <t>陈子彬</t>
-  </si>
-  <si>
-    <t>殷馨</t>
-  </si>
-  <si>
-    <t>潘美伊</t>
-  </si>
-  <si>
-    <t>四组</t>
-  </si>
-  <si>
-    <t>徐浩然</t>
-  </si>
-  <si>
-    <t>刘双</t>
-  </si>
-  <si>
-    <t>曾庆</t>
-  </si>
-  <si>
-    <t>伍刘全</t>
-  </si>
-  <si>
-    <t>苏先勇</t>
-  </si>
-  <si>
-    <t>五组</t>
-  </si>
-  <si>
-    <t>刘展锋</t>
-  </si>
-  <si>
-    <t>刘芳茂</t>
-  </si>
-  <si>
-    <t>萧嘉财</t>
   </si>
   <si>
     <t>六组</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -268,7 +268,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,112 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,20 +404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -486,175 +486,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,54 +780,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -850,17 +802,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -880,6 +821,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -888,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,133 +900,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,8 +1581,8 @@
   <sheetPr/>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="45" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J7" s="45" t="s">
         <v>20</v>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="54" t="s">
         <v>36</v>
@@ -2146,6 +2146,9 @@
   <conditionalFormatting sqref="V4">
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
@@ -2229,9 +2232,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
     <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6">
-    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
     <cfRule type="duplicateValues" dxfId="1" priority="98"/>
